--- a/src/main/resources/objectLocator/FASB.xlsx
+++ b/src/main/resources/objectLocator/FASB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B295C541-4282-4AFE-979E-16B6D8438839}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA4DAD-7194-4AF5-8DB4-A4FF87742A6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FISchedule" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="585">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -1775,13 +1775,31 @@
   </si>
   <si>
     <t>treeFASBMgr</t>
+  </si>
+  <si>
+    <t>testamt.com/Accounts/FASBIASB/Index</t>
+  </si>
+  <si>
+    <t>/Accounts/FASBIASB*FASB/IASB Revisions</t>
+  </si>
+  <si>
+    <t>tbarCmdselect_lease</t>
+  </si>
+  <si>
+    <t>grdLeaseList</t>
+  </si>
+  <si>
+    <t>grdRevisions</t>
+  </si>
+  <si>
+    <t>txtfilter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,6 +1843,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1910,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2028,6 +2052,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3812,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,6 +3957,9 @@
         <v>56</v>
       </c>
       <c r="C8" s="23"/>
+      <c r="E8" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3941,6 +3969,12 @@
         <v>78</v>
       </c>
       <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3980,11 +4014,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,10 +4026,12 @@
     <col min="1" max="1" width="43" style="24" customWidth="1"/>
     <col min="2" max="2" width="123.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="166" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="24"/>
+    <col min="4" max="4" width="49.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
@@ -4005,8 +4041,14 @@
       <c r="C1" s="37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -4014,8 +4056,12 @@
         <v>60</v>
       </c>
       <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -4025,8 +4071,14 @@
       <c r="C3" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -4037,7 +4089,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -4046,7 +4098,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4057,7 +4109,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -4068,7 +4120,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
@@ -4079,7 +4131,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -4089,8 +4141,14 @@
       <c r="C9" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4159,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -4112,7 +4170,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +4181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
@@ -4134,7 +4192,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>82</v>
       </c>
@@ -4145,7 +4203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>62</v>
       </c>
@@ -4155,8 +4213,14 @@
       <c r="C15" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -4165,6 +4229,12 @@
       </c>
       <c r="C16" s="9" t="s">
         <v>99</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/objectLocator/FASB.xlsx
+++ b/src/main/resources/objectLocator/FASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA4DAD-7194-4AF5-8DB4-A4FF87742A6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC855B-D8BA-4947-AED6-127F0526493D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="586">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -1780,19 +1780,22 @@
     <t>testamt.com/Accounts/FASBIASB/Index</t>
   </si>
   <si>
+    <t>tbarCmdselect_lease</t>
+  </si>
+  <si>
+    <t>grdLeaseList</t>
+  </si>
+  <si>
+    <t>grdRevisions</t>
+  </si>
+  <si>
+    <t>txtfilter</t>
+  </si>
+  <si>
+    <t>modal-content-lease-filter</t>
+  </si>
+  <si>
     <t>/Accounts/FASBIASB*FASB/IASB Revisions</t>
-  </si>
-  <si>
-    <t>tbarCmdselect_lease</t>
-  </si>
-  <si>
-    <t>grdLeaseList</t>
-  </si>
-  <si>
-    <t>grdRevisions</t>
-  </si>
-  <si>
-    <t>txtfilter</t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="24" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E2"/>
     </row>
@@ -4072,7 +4075,7 @@
         <v>511</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>571</v>
@@ -4130,6 +4133,12 @@
       <c r="C8" s="9" t="s">
         <v>511</v>
       </c>
+      <c r="D8" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -4142,7 +4151,7 @@
         <v>511</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>571</v>
@@ -4214,7 +4223,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>571</v>
@@ -4231,7 +4240,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>571</v>

--- a/src/main/resources/objectLocator/FASB.xlsx
+++ b/src/main/resources/objectLocator/FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC855B-D8BA-4947-AED6-127F0526493D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA626E1-7E30-4CD6-9DEC-D08987F76B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FISchedule" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="587">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -1774,9 +1774,6 @@
     <t>testamt.com</t>
   </si>
   <si>
-    <t>treeFASBMgr</t>
-  </si>
-  <si>
     <t>testamt.com/Accounts/FASBIASB/Index</t>
   </si>
   <si>
@@ -1796,6 +1793,12 @@
   </si>
   <si>
     <t>/Accounts/FASBIASB*FASB/IASB Revisions</t>
+  </si>
+  <si>
+    <t>//*[@class="k-widget k-treeview"]</t>
+  </si>
+  <si>
+    <t>//*[@id="treeFASBMgr"]</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +3509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="C8" s="23"/>
       <c r="E8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3973,10 +3976,10 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,10 +3991,10 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -4060,7 +4063,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E2"/>
     </row>
@@ -4075,7 +4078,7 @@
         <v>511</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>571</v>
@@ -4134,7 +4137,7 @@
         <v>511</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>571</v>
@@ -4151,7 +4154,7 @@
         <v>511</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>571</v>
@@ -4223,7 +4226,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>571</v>
@@ -4240,7 +4243,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>571</v>

--- a/src/main/resources/objectLocator/FASB.xlsx
+++ b/src/main/resources/objectLocator/FASB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA626E1-7E30-4CD6-9DEC-D08987F76B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C822D5E2-1562-4ACE-A087-94A15FB5C9BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FISchedule" sheetId="44" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="608">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -1799,13 +1799,76 @@
   </si>
   <si>
     <t>//*[@id="treeFASBMgr"]</t>
+  </si>
+  <si>
+    <t>ParentLocators</t>
+  </si>
+  <si>
+    <t>/Accounts/FASBIASB*Process FASB/IASB</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'ddlleaseType_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ddlleaseType_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[@id='btnGenerate']</t>
+  </si>
+  <si>
+    <t>//*[@data-id="Lease"]</t>
+  </si>
+  <si>
+    <t>//*[@id='radioYes']</t>
+  </si>
+  <si>
+    <t>//*[@id='BatchName']</t>
+  </si>
+  <si>
+    <t>//span[text()='All Payment Types selected']</t>
+  </si>
+  <si>
+    <t>//*[@id='ThirteenPERIOD']</t>
+  </si>
+  <si>
+    <t>//input[@value='Ok']</t>
+  </si>
+  <si>
+    <t>tblease</t>
+  </si>
+  <si>
+    <t>//*[@class='grid k-grid k-widget']</t>
+  </si>
+  <si>
+    <t>//div[@class='ChargeTypegrid k-grid k-widget']</t>
+  </si>
+  <si>
+    <t>//a[@id='tbarCmdContinue_with_process']</t>
+  </si>
+  <si>
+    <t>//a[@id='tbarCmdreport_cancel']</t>
+  </si>
+  <si>
+    <t>processInfoPanel</t>
+  </si>
+  <si>
+    <t>//*[@id='bp_msg']</t>
+  </si>
+  <si>
+    <t>//*[@id='pane_toolbar']</t>
+  </si>
+  <si>
+    <t>*/Accounts/FASBIASB*Batch History*</t>
+  </si>
+  <si>
+    <t>//*[@id='BatchHistroy']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1856,8 +1919,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1885,6 +1955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +2016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,14 +2030,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1982,18 +2053,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2012,31 +2074,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,653 +2110,1223 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+  <dxfs count="180">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3531,10 +4160,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4"/>
@@ -3546,7 +4175,7 @@
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3557,7 +4186,7 @@
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3568,7 +4197,7 @@
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3579,7 +4208,7 @@
       <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3590,7 +4219,7 @@
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3599,7 +4228,7 @@
       <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3615,188 +4244,188 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3807,7 +4436,7 @@
       <c r="B28" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3818,18 +4447,18 @@
       <c r="B29" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>431</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3843,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,7 +4510,7 @@
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" t="s">
         <v>571</v>
       </c>
@@ -3896,7 +4525,7 @@
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" t="s">
         <v>571</v>
       </c>
@@ -3911,7 +4540,7 @@
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" t="s">
         <v>571</v>
       </c>
@@ -3926,7 +4555,7 @@
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="11"/>
       <c r="D5" t="s">
         <v>575</v>
       </c>
@@ -3935,61 +4564,61 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="11"/>
       <c r="E6" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="16"/>
       <c r="E8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="37" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" t="s">
         <v>575</v>
       </c>
@@ -3999,19 +4628,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="122" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="121" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="120" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="119" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="118" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4029,22 +4658,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="24" customWidth="1"/>
-    <col min="2" max="2" width="123.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="24"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="123.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
@@ -4055,1824 +4683,1823 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
         <v>584</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="21" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="15" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="22" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="15" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="15" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="21" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="15" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="21" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="21" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="21" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="15" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="15" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="45" t="s">
+      <c r="A111" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C121" s="18"/>
+      <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="32" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="32" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="15" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="21" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="21" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="7"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C137" s="18"/>
+      <c r="C137" s="15"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="15" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="42" t="s">
+      <c r="A148" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="34" t="s">
         <v>541</v>
       </c>
       <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C149" s="11"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="C150" s="45" t="s">
+      <c r="C150" s="35" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="8" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+      <c r="A153" t="s">
         <v>556</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="34" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="A154" t="s">
         <v>559</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+      <c r="A155" t="s">
         <v>561</v>
       </c>
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="23" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="21" t="s">
+      <c r="A156" t="s">
         <v>562</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" t="s">
         <v>565</v>
       </c>
-      <c r="D156" s="24">
+      <c r="D156">
         <f ca="1">D156</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="21" t="s">
+      <c r="A157" t="s">
         <v>563</v>
       </c>
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="23" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="21" t="s">
+      <c r="A158" t="s">
         <v>567</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="23" t="s">
         <v>566</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A144:A147 A130 A1:A125 A133 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="117" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A147 A130 A1:A127 A133 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="116" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A147 A1:A131 A133 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="115" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A147 A1:A133 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="114" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A147 A1:A135 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A147 A1:A137 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="112" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A141 A143:A147 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="111" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A147 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="110" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="109" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="108" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="107" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="105" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="104" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="103" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="102" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A148 A153:A1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="99" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="98" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="97" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="95" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="94" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="93" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="92" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="91" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="90" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="89" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="87" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="86" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="85" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="84" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="83" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="82" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5881,21 +6508,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="133.28515625" customWidth="1"/>
-    <col min="3" max="3" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -5903,237 +6533,310 @@
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="D4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="D11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="D12" t="s">
+        <v>592</v>
+      </c>
+      <c r="F12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="D14" t="s">
+        <v>602</v>
+      </c>
+      <c r="F14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="D15" t="s">
+        <v>593</v>
+      </c>
+      <c r="F15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="D16" t="s">
+        <v>594</v>
+      </c>
+      <c r="F16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="D20" t="s">
+        <v>595</v>
+      </c>
+      <c r="F20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>392</v>
       </c>
@@ -6144,7 +6847,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>394</v>
       </c>
@@ -6155,133 +6858,338 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>399</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="D31" t="s">
+        <v>596</v>
+      </c>
+      <c r="F31" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>464</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>436</v>
       </c>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="D33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>434</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" t="s">
+        <v>599</v>
+      </c>
+      <c r="F35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>603</v>
+      </c>
+      <c r="D36" t="s">
+        <v>604</v>
+      </c>
+      <c r="F36" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A35:A1048576 A1:A30">
+  <conditionalFormatting sqref="A36:A1048576 A2:A5 A8:A10 A13:A14 A17:A19 A22:A30">
+    <cfRule type="duplicateValues" dxfId="134" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A1048576 A2:A5 A8:A10 A13:A14 A17:A19 A22:A30 A32">
+    <cfRule type="duplicateValues" dxfId="133" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5 A36:A1048576 A8:A10 A13:A14 A17:A19 A22:A30 A32">
+    <cfRule type="duplicateValues" dxfId="132" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5 A36:A1048576 A8:A10 A13:A14 A17:A19 A22:A30 A32">
+    <cfRule type="duplicateValues" dxfId="131" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5 A36:A1048576 A8:A10 A13:A14 A17:A19 A22:A30 A32">
+    <cfRule type="duplicateValues" dxfId="130" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="duplicateValues" dxfId="129" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="duplicateValues" dxfId="128" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C34">
+    <cfRule type="duplicateValues" dxfId="127" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="126" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="125" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="124" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="123" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="122" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="121" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="120" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="119" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="118" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="117" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="116" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="115" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="114" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="113" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="112" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="111" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="110" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="109" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="108" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="107" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="106" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="105" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="104" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="103" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="102" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="101" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="100" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="99" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="98" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="97" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="96" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="95" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="94" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="93" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="92" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="91" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="90" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="89" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="88" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="87" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="86" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="85" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="84" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="83" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="82" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="81" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="80" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="79" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="78" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="77" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A1048576 A1:A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="76" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A33 A35:A1048576">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="75" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A33 A35:A1048576">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="74" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A33 A35:A1048576">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="73" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="72" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="71" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="70" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6301,9 +7209,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="88.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -6314,18 +7224,28 @@
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>606</v>
+      </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -6360,13 +7280,13 @@
       <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D3"/>
@@ -6413,9 +7333,13 @@
       <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>607</v>
+      </c>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>575</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -6448,13 +7372,13 @@
       <c r="AJ4"/>
     </row>
     <row r="5" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D5"/>
@@ -6492,10 +7416,10 @@
       <c r="AJ5"/>
     </row>
     <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6"/>
@@ -6533,191 +7457,196 @@
       <c r="AJ6"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D14" t="s">
+        <v>605</v>
+      </c>
+      <c r="F14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="27" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6815,7 +7744,7 @@
       <c r="A2" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="4"/>
@@ -6827,131 +7756,131 @@
       <c r="B3" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="27" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C15" t="s">
@@ -6959,21 +7888,21 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7053,7 +7982,7 @@
       <c r="A2" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C2" s="4"/>
@@ -7062,10 +7991,10 @@
       <c r="A3" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7076,18 +8005,18 @@
       <c r="B4" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7098,7 +8027,7 @@
       <c r="B6" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7109,7 +8038,7 @@
       <c r="B7" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7120,117 +8049,117 @@
       <c r="B8" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7336,64 +8265,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>402</v>
       </c>
       <c r="C7" s="4"/>
@@ -7451,22 +8380,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>107</v>
       </c>
     </row>
